--- a/example_results/beach_soccer_example_overall_results.xlsx
+++ b/example_results/beach_soccer_example_overall_results.xlsx
@@ -624,10 +624,10 @@
         <v>102.713178294574</v>
       </c>
       <c r="L5" t="n">
-        <v>44.3456452348381</v>
+        <v>44.3484956779217</v>
       </c>
       <c r="M5" t="n">
-        <v>176.128590971272</v>
+        <v>176.470588235294</v>
       </c>
     </row>
     <row r="6">
@@ -665,10 +665,10 @@
         <v>2785.9778597786</v>
       </c>
       <c r="L6" t="n">
-        <v>1084.87084870849</v>
+        <v>1077.49077490775</v>
       </c>
       <c r="M6" t="n">
-        <v>4793.35793357934</v>
+        <v>4808.11808118081</v>
       </c>
     </row>
     <row r="7">
@@ -709,7 +709,7 @@
         <v>3.17609692977297</v>
       </c>
       <c r="M7" t="n">
-        <v>15.1746853311375</v>
+        <v>15.2923185507587</v>
       </c>
     </row>
     <row r="8">
